--- a/DataNV/Чайковський.xlsx
+++ b/DataNV/Чайковський.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="##0"/>
-    <numFmt numFmtId="165" formatCode="dd mm yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -30,34 +27,16 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00ffffff"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005a61f0"/>
-        <bgColor rgb="005a61f0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9FFE6"/>
-        <bgColor rgb="00E9FFE6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5FFC3"/>
-        <bgColor rgb="00F5FFC3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,15 +51,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +431,12 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
@@ -475,13 +450,13 @@
     <col width="20" customWidth="1" min="19" max="19"/>
     <col width="20" customWidth="1" min="20" max="20"/>
     <col width="18" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="24" customWidth="1" min="22" max="22"/>
     <col width="10" customWidth="1" min="23" max="23"/>
     <col width="17" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="10" customWidth="1" min="26" max="26"/>
     <col width="5" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -627,432 +602,2445 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>15.07.2022</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>13:23:36</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Заказ-наряд ЗНGA009514 от 16.08.2022 13:23:36</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>В работе</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>28.07.2022 15:39:58</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>Технічне обслуговування</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15:08:02</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA025442 від 24.05.2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Погодження</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>08.06.2024 08:02:15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>тендер. погодження робіт з замовником, НЗ буде закрите до середини  серпня</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Поточний ремонт</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Чайковський М.Р.</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>2871.08</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <v>1194.04</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>2392.57</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>995.03</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>3387.6</v>
-      </c>
-      <c r="P2" s="5" t="n">
-        <v>957.02</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>4065.12</v>
-      </c>
-      <c r="R2" s="5" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>ГУНП</t>
-        </is>
-      </c>
-      <c r="T2" s="5" t="inlineStr">
-        <is>
-          <t>ГУНП</t>
-        </is>
-      </c>
-      <c r="U2" s="4" t="inlineStr">
-        <is>
-          <t>+38 (0322) 586840</t>
-        </is>
-      </c>
-      <c r="V2" s="5" t="inlineStr">
-        <is>
-          <t>Sportage 1,6 LX 2WD 6M/T</t>
-        </is>
-      </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>141568</t>
-        </is>
-      </c>
-      <c r="X2" s="5" t="inlineStr">
-        <is>
-          <t>U5YPG814AML050385</t>
-        </is>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>16067</v>
-      </c>
-      <c r="Z2" s="5" t="inlineStr">
-        <is>
-          <t>03.09.2021</t>
-        </is>
-      </c>
-      <c r="AA2" s="4" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="AB2" s="5" t="inlineStr">
-        <is>
-          <t>Юридическое лицо</t>
+      <c r="K2" t="n">
+        <v>25272</v>
+      </c>
+      <c r="L2" t="n">
+        <v>28657.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>21060</v>
+      </c>
+      <c r="N2" t="n">
+        <v>23881.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>44941.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8424</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>53929.8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>ВІЙСЬКОВА ЧАСТИНА Р9025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>ВІЙСЬКОВА ЧАСТИНА Р9025</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>+38 (044) 2004753</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>RENAULT DUSTER</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>ВС7135ЕА</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>VF1HSRADG55079357</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>179500</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>03.08.2022</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>08:36:03</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Заказ-наряд ЗНGA009926 от 03.08.2022 08:36:03</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Заявка</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>03.08.2022 09:21:00</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Діагностика</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>06.06.2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11:19:54</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA025741 від 06.06.2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Погодження</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15.06.2024 12:46:50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>тендер. погодження робіт з замовником, НЗ буде закрите до середини  серпня</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Поточний ремонт</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Чайковський М.Р.</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="5" t="n">
-        <v>407</v>
-      </c>
-      <c r="M3" s="4" t="n"/>
-      <c r="N3" s="5" t="n">
-        <v>339.17</v>
-      </c>
-      <c r="O3" s="4" t="n"/>
-      <c r="P3" s="5" t="n"/>
-      <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t>КОЗАК ВІРА ВАСИЛІВНА</t>
-        </is>
-      </c>
-      <c r="T3" s="5" t="inlineStr">
-        <is>
-          <t>КОЗАК ВІРА ВАСИЛІВНА</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>+38 (067) 5504970</t>
-        </is>
-      </c>
-      <c r="V3" s="5" t="inlineStr">
-        <is>
-          <t>Cee'd 1.6 EX WAG 5dr 6A/T</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>BC4303PA</t>
-        </is>
-      </c>
-      <c r="X3" s="5" t="inlineStr">
-        <is>
-          <t>U5YH5816BNL124063</t>
-        </is>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>342</v>
-      </c>
-      <c r="Z3" s="5" t="inlineStr">
-        <is>
-          <t>22.06.2022</t>
-        </is>
-      </c>
-      <c r="AA3" s="4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AB3" s="5" t="inlineStr">
-        <is>
-          <t>Частное лицо</t>
+      <c r="K3" t="n">
+        <v>18051.91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13066.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15043.26</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10888.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25931.76</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6017.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>31118.11</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>ВІЙСЬКОВА ЧАСТИНА Р9025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>ВІЙСЬКОВА ЧАСТИНА Р9025</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>+38 (044) 2004753</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>RENAULT DUSTER</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>ВС6135ІІ</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>VF1HJD40963825347</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>120205</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>17.08.2022</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>10:04:20</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>Заказ-наряд ЗНGA010276 от 17.08.2022 10:04:20</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Выполнен</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>17.08.2022 13:12:36</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>Передпродажна підготовка</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10.06.2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10:37:32</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA025782 від 10.06.2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Погодження</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>24.06.2024 08:22:14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>тендер. погодження робіт з замовником, НЗ буде закрите до середини  серпня</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Поточний ремонт</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Чайковський М.Р.</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>267.24</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>1783.44</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>267.24</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>1783.44</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>2050.68</v>
-      </c>
-      <c r="P4" s="5" t="n"/>
-      <c r="Q4" s="4" t="n">
-        <v>2050.68</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="5" t="inlineStr">
-        <is>
-          <t>ГАЛИЧИНА-АВТО ПРАТ</t>
-        </is>
-      </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>+38 (032) 2320740</t>
-        </is>
-      </c>
-      <c r="V4" s="5" t="inlineStr">
-        <is>
-          <t>TIGGO 2 (A13T) 1.5 5MT</t>
-        </is>
-      </c>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="5" t="inlineStr">
-        <is>
-          <t>LVVDB11B1NE022266</t>
-        </is>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="5" t="inlineStr">
-        <is>
-          <t>17.08.2022</t>
-        </is>
-      </c>
-      <c r="AA4" s="4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AB4" s="5" t="n"/>
+      <c r="K4" t="n">
+        <v>33709.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36124.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>28091.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30103.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>58195</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11236.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>69834</v>
+      </c>
+      <c r="R4" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>ВІЙСЬКОВА ЧАСТИНА Р9025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>ВІЙСЬКОВА ЧАСТИНА Р9025</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>+38 (044) 2004753</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>RENAULT DUSTER</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>ВС6802КО</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>VF1HJD40364945333</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>148832</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>17.08.2022</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>12:18:16</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Заказ-наряд ЗНGA010282 от 17.08.2022 12:18:24</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="A5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14.06.2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>09:24:52</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA025891 від 14.06.2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Очікування деталей</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14.06.2024 16:14:40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>тендер. очікування запчастин по МКПП</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Поточний ремонт</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>8969.16</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3819.37</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7474.3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3182.81</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10657.11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2989.72</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12788.53</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>АВТОЦЕНТР НА СТОЛИЧНОМУ, ФІЛІЯ ТОВ "УКРАЇНСЬКА АВТОМОБІЛЬНА КОРПОРАЦІЯ"</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Департамент патрульної поліції -ДПП</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>+38 (044) 2549488</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>RENAULT DUSTER</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>141661</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>VF1HJD40868495834</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>192144</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08:06:28</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA025919 від 17.06.2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Погодження</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>23.06.2024 11:56:25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>тендер. погодження робіт з замовником, НЗ буде закрите до середини  серпня</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Поточний ремонт</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>28703.81</v>
+      </c>
+      <c r="L6" t="n">
+        <v>22399.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>23919.84</v>
+      </c>
+      <c r="N6" t="n">
+        <v>18666</v>
+      </c>
+      <c r="O6" t="n">
+        <v>42585.84</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9567.940000000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>51103.01</v>
+      </c>
+      <c r="R6" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>ВІЙСЬКОВА ЧАСТИНА Р9025</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>ВІЙСЬКОВА ЧАСТИНА Р9025</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>+38 (044) 2004753</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>FORESTER</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>ВС7744ЕМ</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>JF1SG5LE56G092859</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>206285</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01.07.2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>09:49:58</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026206 від 01.07.2024</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Заявка</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>Допродажний ремонт Сі Ей Автомотів</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>01.07.2024 17:04:48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Гарантійний ремонт</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Діагностика</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Чайковський М.Р.</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>2263.18</v>
-      </c>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="4" t="n">
-        <v>1885.98</v>
-      </c>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="4" t="n"/>
-      <c r="P5" s="5" t="n">
-        <v>754.4</v>
-      </c>
-      <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="5" t="n"/>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="K7" t="n">
+        <v>13698.17</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3381.84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11415.14</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2818.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>14233.34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4566.06</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>17080.01</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>РУБЕЛЬ ОЛЬГА ПЕТРІВНА</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>РУБЕЛЬ ОЛЬГА ПЕТРІВНА</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>+38 (067) 6733071</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Sportage 1.6D LX 2WD 6M/T</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>ВС3115КТ</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>U5YPG812ALL831495</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>71200</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>19.06.2020</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Приватна особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>24.07.2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08:01:53</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026688 від 24.07.2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Виконано</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>24.07.2024 08:31:53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>тендер. погодження робіт з замовником, НЗ буде закрите на початку серпня</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Технічне обслуговування</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1939.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1616</v>
+      </c>
+      <c r="N8" t="n">
+        <v>233</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1849</v>
+      </c>
+      <c r="P8" t="n">
+        <v>646.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2218.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>АВТОЦЕНТР НА СТОЛИЧНОМУ, ФІЛІЯ ТОВ "УКРАЇНСЬКА АВТОМОБІЛЬНА КОРПОРАЦІЯ"</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Департамент патрульної поліції -ДПП</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>+38 (044) 2549488</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>RENAULT DUSTER 1.6</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>117595</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>VF1HJD20865513043</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>263963</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24.07.2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08:05:42</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026689 від 24.07.2024</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Виконано</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>24.07.2024 10:29:42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>тендер. погодження робіт з замовником, НЗ буде закрите на початку серпня</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Технічне обслуговування</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>8848.57</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1342.08</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7373.81</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1118.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8492.209999999999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2949.52</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>10190.65</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>АВТОЦЕНТР НА СТОЛИЧНОМУ, ФІЛІЯ ТОВ "УКРАЇНСЬКА АВТОМОБІЛЬНА КОРПОРАЦІЯ"</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Департамент патрульної поліції -ДПП</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>+38 (044) 2549488</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>RENAULT DUSTER</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>141688</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>VF1HJD20069724522</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>137013</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>24.07.2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08:10:20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026690 від 24.07.2024</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Виконано</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>24.07.2024 08:40:20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>тендер. погодження робіт з замовником, НЗ буде закрите на початку серпня</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Технічне обслуговування</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1939.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1616</v>
+      </c>
+      <c r="N10" t="n">
+        <v>233</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1849</v>
+      </c>
+      <c r="P10" t="n">
+        <v>646.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2218.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>АВТОЦЕНТР НА СТОЛИЧНОМУ, ФІЛІЯ ТОВ "УКРАЇНСЬКА АВТОМОБІЛЬНА КОРПОРАЦІЯ"</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Департамент патрульної поліції -ДПП</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>+38 (044) 2549488</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>RENAULT DUSTER</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>311030</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>VF1HJD20967545598</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>213090</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24.07.2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08:12:37</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026691 від 24.07.2024</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Виконано</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>24.07.2024 08:42:37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>тендер. погодження робіт з замовником, НЗ буде закрите на початку серпня</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Технічне обслуговування</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1939.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1616</v>
+      </c>
+      <c r="N11" t="n">
+        <v>233</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1849</v>
+      </c>
+      <c r="P11" t="n">
+        <v>646.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2218.8</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>АВТОЦЕНТР НА СТОЛИЧНОМУ, ФІЛІЯ ТОВ "УКРАЇНСЬКА АВТОМОБІЛЬНА КОРПОРАЦІЯ"</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Департамент патрульної поліції -ДПП</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>+38 (044) 2549488</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>RENAULT DUSTER</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>311034</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>VF1HJD20667669313</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>203192</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>24.07.2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08:14:48</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026692 від 24.07.2024</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Виконано</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>24.07.2024 08:44:48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>тендер. погодження робіт з замовником, НЗ буде закрите на початку серпня</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Технічне обслуговування</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1939.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1616</v>
+      </c>
+      <c r="N12" t="n">
+        <v>233</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1849</v>
+      </c>
+      <c r="P12" t="n">
+        <v>646.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2218.8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>АВТОЦЕНТР НА СТОЛИЧНОМУ, ФІЛІЯ ТОВ "УКРАЇНСЬКА АВТОМОБІЛЬНА КОРПОРАЦІЯ"</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Департамент патрульної поліції -ДПП</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>+38 (044) 2549488</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>RENAULT DUSTER</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>117055</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>VF1HJD20465479571</t>
+        </is>
+      </c>
+      <c r="Y12" t="n">
+        <v>260881</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25.07.2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12:02:26</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026736 від 25.07.2024</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Заявка</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>25.07.2024 14:10:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Очікування з/ч</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Поточний ремонт</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1098</v>
+      </c>
+      <c r="N13" t="n">
+        <v>915</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>БРЕЦКО ЮРІЙ МИХАЙЛОВИЧ</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>БРЕЦКО ЮРІЙ МИХАЙЛОВИЧ</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>+38 (097) 5404706</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>MG4 ELECRTIC</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>ТРАНЗИТ</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>LSJWH4092PN049494</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>21450</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Приватна особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>26.07.2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10:30:50</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026763 від 26.07.2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Виконано</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>26.07.2024 11:42:50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>тендер. погодження робіт з замовником, НЗ буде закрите на початку серпня</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Технічне обслуговування</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2479.45</v>
+      </c>
+      <c r="L14" t="n">
+        <v>671.04</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2066.21</v>
+      </c>
+      <c r="N14" t="n">
+        <v>559.2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2625.41</v>
+      </c>
+      <c r="P14" t="n">
+        <v>826.48</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3150.49</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>АВТОЦЕНТР НА СТОЛИЧНОМУ, ФІЛІЯ ТОВ "УКРАЇНСЬКА АВТОМОБІЛЬНА КОРПОРАЦІЯ"</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Департамент патрульної поліції -ДПП</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>+38 (044) 2549488</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Megane 1.5</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>141689</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>VF1RFB00868671121</t>
+        </is>
+      </c>
+      <c r="Y14" t="n">
+        <v>60740</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>50</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30.07.2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>09:01:43</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026818 від 30.07.2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Виконано</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>30.07.2024 12:10:43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>НЗ буде закрите на початку серпня</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Технічне обслуговування</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>3910.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3042.9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3259.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2535.75</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5794.83</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1303.64</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6953.8</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>УСБУ у ЛЬВІВСЬКІЙ ОБЛ.</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>УСБУ у ЛЬВІВСЬКІЙ ОБЛ.</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>+38 (000) 1111111</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>TIGGO 4 1.5 5MT</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>BC9554PI</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>LVVDB11B0ND100638</t>
+        </is>
+      </c>
+      <c r="Y15" t="n">
+        <v>27802</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>07.12.2022</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>30.07.2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09:53:52</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026829 від 30.07.2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>В роботі</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>30.07.2024 11:17:56</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Діагностика</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>988.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>823.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Грунтковський Роман Ярославович</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Грунтковський Роман Ярославович</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>+38 (050) 3300045</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Sportage 1.7D LX 2WD 7DCT</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>АА6802РТ</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>U5YPG815GHL326220</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>205100</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>21.06.2017</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Приватна особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30.07.2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10:25:05</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026833 від 30.07.2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Заявка</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>30.07.2024 16:33:00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Діагностика</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>197.28</v>
+      </c>
+      <c r="N17" t="n">
+        <v>164.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>БАКУМ РОМАН ЗЕНОВІЙОВИЧ</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>БАКУМ РОМАН ЗЕНОВІЙОВИЧ</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>+38 (067) 5502974</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Sens S 1.3 4dr M/T</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>ВС7735РО</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Y6DTF698KH0339273</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>178254</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>01.02.2017</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Приватна особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30.07.2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10:37:05</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026834 від 30.07.2024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>В роботі</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>31.07.2024 11:28:36</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Поточний ремонт</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>29578.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10980</v>
+      </c>
+      <c r="M18" t="n">
+        <v>24648.75</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9150</v>
+      </c>
+      <c r="O18" t="n">
+        <v>33798.75</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9859.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>40558.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>ЗАРІШНЯК ОКСАНА ОЛЕГІВНА</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>ЗАРІШНЯК ОКСАНА ОЛЕГІВНА</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>+38 (068) 7426773</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>SPORTAGE</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>АВ4997ВК</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>U5YPB815ACL098739</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
+        <v>192100</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>29.09.2011</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Приватна особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>30.07.2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:15:59</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026854 від 30.07.2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Заявка</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>30.07.2024 17:28:35</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Передпродажна підготовка</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2022.15</v>
+      </c>
+      <c r="M19" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2022.15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2245.95</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2245.95</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>АМСЕТ ТЕХ СТРОЙ ТОВ</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Sportage 1.6T EX 2WD 7DCT</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>U5YPV81BGSL293907</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>30.07.2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15:20:19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026856 від 30.07.2024</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Заявка</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>31.07.2024 08:08:19</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Додаткове обладнання</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>13431.95</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3074.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11193.29</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2562</v>
+      </c>
+      <c r="O20" t="n">
+        <v>13755.29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4477.32</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>16506.35</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>АМСЕТ ТЕХ СТРОЙ ТОВ</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>АМСЕТ ТЕХ СТРОЙ ТОВ</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Sportage 1.6T EX 2WD 7DCT</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>U5YPV81BGSL293907</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>31.07.2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07:11:51</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026862 від 31.07.2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>В роботі</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Додаткове обладнання</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>772.8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>644</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S21" t="inlineStr">
         <is>
           <t>СІ ЕЙ АВТОМОТІВ ТОВ</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
-        <is>
-          <t>ГАЛИЧИНА-АВТО ПРАТ</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>СІ ЕЙ АВТОМОТІВ ТОВ</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0442068273</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Tiggo 4 PRO 1.5 5MT</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>LVVDB11B9PD977762</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>71</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>31.07.2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:50:39</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026889 від 31.07.2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>В роботі</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>01.08.2024 09:14:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Технічне обслуговування</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>11828.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3689.28</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9857.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3074.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>12931.48</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3942.84</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>15517.78</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Оленяк Віталій Сергійович</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Оленяк Віталій Сергійович</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>+38 (093) 1347798</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Sportage 1.7D LX 2WD 7DCT</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>ВС1890РА</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>U5YPG815AHL373920</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>122100</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>23.11.2017</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Приватна особа</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>73</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>31.07.2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15:53:45</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026891 від 31.07.2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>В роботі</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>01.08.2024 08:50:01</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Передпродажна підготовка</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Чайковський М.Р.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Не проведен</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>221.84</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2365.09</v>
+      </c>
+      <c r="M23" t="n">
+        <v>221.84</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2365.09</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2586.93</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2586.93</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>ГАЛИЧИНА АВТО ТОВ</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
         <is>
           <t>+38 (032) 2320740</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
-        <is>
-          <t>TIGGO 2 (A13T) 1.5 5MT</t>
-        </is>
-      </c>
-      <c r="W5" s="4" t="n"/>
-      <c r="X5" s="5" t="inlineStr">
-        <is>
-          <t>LVVDB11B1NE022266</t>
-        </is>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="5" t="inlineStr">
-        <is>
-          <t>17.08.2022</t>
-        </is>
-      </c>
-      <c r="AA5" s="4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AB5" s="5" t="inlineStr">
-        <is>
-          <t>Юридическое лицо</t>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Tiggo 4 PRO 1.5 CVT</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>LVVDB21B4RC019062</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2024</t>
         </is>
       </c>
     </row>

--- a/DataNV/Чайковський.xlsx
+++ b/DataNV/Чайковський.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA025442 від 24.05.2024</t>
+          <t>Наряд-замовлення ЗНGA025442 від 24.05.2024 15:08:01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -720,7 +720,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA025741 від 06.06.2024</t>
+          <t>Наряд-замовлення ЗНGA025741 від 06.06.2024 11:19:54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -837,7 +837,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA025782 від 10.06.2024</t>
+          <t>Наряд-замовлення ЗНGA025782 від 10.06.2024 10:37:32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -954,7 +954,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA025891 від 14.06.2024</t>
+          <t>Наряд-замовлення ЗНGA025891 від 14.06.2024 09:24:52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1071,7 +1071,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA025919 від 17.06.2024</t>
+          <t>Наряд-замовлення ЗНGA025919 від 17.06.2024 08:06:28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1188,7 +1188,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026206 від 01.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026206 від 01.07.2024 09:49:58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1310,7 +1310,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026688 від 24.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026688 від 24.07.2024 08:01:53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1427,7 +1427,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026689 від 24.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026689 від 24.07.2024 08:05:42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1544,7 +1544,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026690 від 24.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026690 від 24.07.2024 08:10:20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1661,7 +1661,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026691 від 24.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026691 від 24.07.2024 08:12:37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1778,7 +1778,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026692 від 24.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026692 від 24.07.2024 08:14:48</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1895,7 +1895,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026736 від 25.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026736 від 25.07.2024 12:02:26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1997,7 +1997,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026763 від 26.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026763 від 26.07.2024 17:53:12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2114,7 +2114,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026818 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026818 від 30.07.2024 09:01:43</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2236,7 +2236,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026829 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026829 від 30.07.2024 09:53:52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2261,6 +2261,11 @@
       <c r="F16" t="inlineStr">
         <is>
           <t>30.07.2024 11:17:56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Очікування з/ч</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2338,7 +2343,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2352,7 +2357,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026833 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026833 від 30.07.2024 10:25:05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2440,7 +2445,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2454,7 +2459,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026834 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026834 від 30.07.2024 10:37:05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2465,6 +2470,11 @@
       <c r="F18" t="inlineStr">
         <is>
           <t>31.07.2024 11:28:36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Очікування з/ч</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2557,7 +2567,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2571,7 +2581,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026854 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026854 від 30.07.2024 15:15:59</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2646,7 +2656,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2660,7 +2670,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026856 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026856 від 30.07.2024 15:20:19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2743,304 +2753,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>Юридична особа</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>66</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>31.07.2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>07:11:51</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Наряд-замовлення ЗНGA026862 від 31.07.2024</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>В роботі</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Додаткове обладнання</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Чайковський М.Р.</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Не проведен</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>772.8</v>
-      </c>
-      <c r="N21" t="n">
-        <v>644</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>СІ ЕЙ АВТОМОТІВ ТОВ</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>СІ ЕЙ АВТОМОТІВ ТОВ</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0442068273</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Tiggo 4 PRO 1.5 5MT</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>LVVDB11B9PD977762</t>
-        </is>
-      </c>
-      <c r="Y21" t="n">
-        <v>57</v>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>Юридична особа</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>71</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>31.07.2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>14:50:39</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Наряд-замовлення ЗНGA026889 від 31.07.2024</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>В роботі</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>01.08.2024 09:14:00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Технічне обслуговування</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Чайковський М.Р.</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Не проведен</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>11828.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3689.28</v>
-      </c>
-      <c r="M22" t="n">
-        <v>9857.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3074.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>12931.48</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3942.84</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>15517.78</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Оленяк Віталій Сергійович</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Оленяк Віталій Сергійович</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>+38 (093) 1347798</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Sportage 1.7D LX 2WD 7DCT</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>ВС1890РА</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>U5YPG815AHL373920</t>
-        </is>
-      </c>
-      <c r="Y22" t="n">
-        <v>122100</v>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>23.11.2017</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>Приватна особа</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>73</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>31.07.2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>15:53:45</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Наряд-замовлення ЗНGA026891 від 31.07.2024</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>В роботі</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>01.08.2024 08:50:01</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Передпродажна підготовка</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Чайковський М.Р.</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Не проведен</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>221.84</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2365.09</v>
-      </c>
-      <c r="M23" t="n">
-        <v>221.84</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2365.09</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2586.93</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2586.93</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.938</v>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>ГАЛИЧИНА АВТО ТОВ</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>+38 (032) 2320740</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Tiggo 4 PRO 1.5 CVT</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>LVVDB21B4RC019062</t>
-        </is>
-      </c>
-      <c r="Y23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>2024</t>
         </is>
       </c>
     </row>
